--- a/step5-Count.xlsx
+++ b/step5-Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6EB9E5-DBD5-4D96-8DE2-CB59801F2A33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7344D5-B4DA-41A0-8B5E-07EAD23D42B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,12 +657,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>H8-1.96*G8/SQRT(30)</f>
+        <f>H8-2.045*G8/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <f>H8+1.96*G8/SQRT(30)</f>
+        <f>H8+2.045*G8/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="L8" s="2"/>
@@ -693,12 +693,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>H9-1.96*G9/SQRT(30)</f>
+        <f t="shared" ref="I9:I10" si="0">H9-2.045*G9/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <f>H9+1.96*G9/SQRT(30)</f>
+        <f t="shared" ref="K9:K10" si="1">H9+2.045*G9/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="L9" s="2"/>
@@ -729,12 +729,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>H10-1.96*G10/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
-        <f>H10+1.96*G10/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="2"/>
@@ -1887,13 +1887,13 @@
     <sortCondition ref="B2:B91"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
